--- a/DOCS/Веб-платформа управления изменениями/ПРЕМИЯ.xlsx
+++ b/DOCS/Веб-платформа управления изменениями/ПРЕМИЯ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Веб-платформа управления изменениями\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\DOCS\Веб-платформа управления изменениями\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB2AB4-F6F3-4D77-A329-F6DF015E6A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5343CD6-0B16-454F-BC14-9C196D920621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2505" yWindow="510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/DOCS/Веб-платформа управления изменениями/ПРЕМИЯ.xlsx
+++ b/DOCS/Веб-платформа управления изменениями/ПРЕМИЯ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\Github_Projects\python-jsx-smart-pmp-app\DOCS\Веб-платформа управления изменениями\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\Веб-платформа управления изменениями\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5343CD6-0B16-454F-BC14-9C196D920621}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB2AB4-F6F3-4D77-A329-F6DF015E6A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2505" yWindow="510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
